--- a/results_final/ti_LL.xlsx
+++ b/results_final/ti_LL.xlsx
@@ -486,91 +486,91 @@
         <v>0.98</v>
       </c>
       <c r="D2">
-        <v>1.555019354881784</v>
+        <v>1.555158046380211</v>
       </c>
       <c r="E2">
-        <v>2.192907498991151</v>
+        <v>2.193592700421596</v>
       </c>
       <c r="F2">
-        <v>2.823777663097057</v>
+        <v>2.825688979887564</v>
       </c>
       <c r="G2">
-        <v>3.410452957778887</v>
+        <v>3.414473754907881</v>
       </c>
       <c r="H2">
-        <v>3.934028158392977</v>
+        <v>3.94114910836752</v>
       </c>
       <c r="I2">
-        <v>4.386971626532074</v>
+        <v>4.398190732447913</v>
       </c>
       <c r="J2">
-        <v>4.76829935637033</v>
+        <v>4.784522869632266</v>
       </c>
       <c r="K2">
-        <v>5.080245408104721</v>
+        <v>5.102192146299207</v>
       </c>
       <c r="L2">
-        <v>5.326398566560854</v>
+        <v>5.354521038467411</v>
       </c>
       <c r="M2">
-        <v>5.503083083711711</v>
+        <v>5.537498246916464</v>
       </c>
       <c r="N2">
-        <v>5.615842734193365</v>
+        <v>5.656236503616492</v>
       </c>
       <c r="O2">
-        <v>5.668418045072747</v>
+        <v>5.713915123691826</v>
       </c>
       <c r="P2">
-        <v>5.662748367363778</v>
+        <v>5.711747298576652</v>
       </c>
       <c r="Q2">
-        <v>5.61145508493396</v>
+        <v>5.662266668847097</v>
       </c>
       <c r="R2">
-        <v>5.535284419320074</v>
+        <v>5.586810363776181</v>
       </c>
       <c r="S2">
-        <v>5.447767079300765</v>
+        <v>5.49931225947501</v>
       </c>
       <c r="T2">
-        <v>5.357527374634066</v>
+        <v>5.408670589460685</v>
       </c>
       <c r="U2">
-        <v>5.269867308823625</v>
+        <v>5.320372009382878</v>
       </c>
       <c r="V2">
-        <v>5.187855665515754</v>
+        <v>5.237608159387034</v>
       </c>
       <c r="W2">
-        <v>5.113077602973383</v>
+        <v>5.162044266925053</v>
       </c>
       <c r="X2">
-        <v>5.046150312729895</v>
+        <v>5.094348037817296</v>
       </c>
       <c r="Y2">
-        <v>4.987076767336462</v>
+        <v>5.034552663940652</v>
       </c>
       <c r="Z2">
-        <v>4.935487010743247</v>
+        <v>4.982304616422113</v>
       </c>
       <c r="AA2">
-        <v>4.890801174559637</v>
+        <v>4.937031233743586</v>
       </c>
       <c r="AB2">
-        <v>4.852338001330825</v>
+        <v>4.898052453675849</v>
       </c>
       <c r="AC2">
-        <v>4.819385511910369</v>
+        <v>4.864653721070636</v>
       </c>
       <c r="AD2">
-        <v>4.791245504574404</v>
+        <v>4.836132037179684</v>
       </c>
       <c r="AE2">
-        <v>4.767260115456718</v>
+        <v>4.811823577870363</v>
       </c>
       <c r="AF2">
-        <v>4.750400600889879</v>
+        <v>4.79473866154559</v>
       </c>
     </row>
   </sheetData>
